--- a/imdb_infinity_war.xlsx
+++ b/imdb_infinity_war.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>score</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve"> Epic conclusion to Marvel's first 10 years</t>
   </si>
   <si>
-    <t xml:space="preserve"> shockingly mediocre</t>
-  </si>
-  <si>
     <t xml:space="preserve"> More of the same...</t>
   </si>
   <si>
@@ -97,18 +94,21 @@
     <t xml:space="preserve"> Overrated and bloated</t>
   </si>
   <si>
-    <t xml:space="preserve"> Its no Super Hero Squad Infinity Gauntlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fantasy rather than a superhero movie</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Infinity War deserved to be the best and grand</t>
   </si>
   <si>
+    <t xml:space="preserve"> ABOVE MY EXPECTATION.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mind blowing..</t>
   </si>
   <si>
+    <t xml:space="preserve"> I don't understand all the praise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speechless!</t>
+  </si>
+  <si>
     <t>MR_Heraclius</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>mto10</t>
   </si>
   <si>
-    <t>djw-98009</t>
-  </si>
-  <si>
     <t>tfminfl</t>
   </si>
   <si>
@@ -172,18 +169,21 @@
     <t>milleniumlogan</t>
   </si>
   <si>
-    <t>willz187</t>
-  </si>
-  <si>
-    <t>comolgab</t>
-  </si>
-  <si>
     <t>pranayjalvi</t>
   </si>
   <si>
+    <t>kuaci89</t>
+  </si>
+  <si>
     <t>ashishmahaju</t>
   </si>
   <si>
+    <t>joshkej-84077</t>
+  </si>
+  <si>
+    <t>gibbo-19529</t>
+  </si>
+  <si>
     <t>23 February 2020</t>
   </si>
   <si>
@@ -217,9 +217,6 @@
     <t>23 May 2018</t>
   </si>
   <si>
-    <t>20 February 2019</t>
-  </si>
-  <si>
     <t>13 January 2019</t>
   </si>
   <si>
@@ -235,13 +232,10 @@
     <t>3 May 2018</t>
   </si>
   <si>
-    <t>28 February 2019</t>
-  </si>
-  <si>
-    <t>12 January 2019</t>
-  </si>
-  <si>
     <t>22 May 2018</t>
+  </si>
+  <si>
+    <t>30 April 2018</t>
   </si>
   <si>
     <t>This movie portrays a villain that by far has been the best out of all the other Marvel antagonists. It shows his personal conflicts, his purpose, as well as his cruelty. The heroes of this film are overshadowed by this, but the ending really makes a mark on the audience.</t>
@@ -302,9 +296,6 @@
 Etc. Not much you can find that's wrong with this movie. It's literally the perfect movie Marvel has been building up to for 10 years. And those that claim it didn't have an ending as a negative, I beg to differ. Just because the villain won doesn't mean it didn't have an ending. My Rating: 10/10</t>
   </si>
   <si>
-    <t>Relies mostly on shock value. not much substance or plot. undid all of thor's character development in thor: ragnarok (loss of eye, hammer). good acting, though! overall, shocking but not surprising.</t>
-  </si>
-  <si>
     <t>303. Avengers: Infinity War. Heres what I get... There's a big cell phone game app fan out there named Thermos, he loves Bejeweled and Pokemon Go so much, that he decided to combine the two... search for the jewels in real life!! Collect them all, get free gifts, lives, reverse previous mistakes, you've played the games you know how they work. But little does Thermos know, the game apps feel him as a threat, once he collects all the gems, Thermos snaps his fingers and poof all the game apps Thermos doesn't like poof! Gone! So what happens is another app called the Avengers go after Thermos. Now I've played the game apps before, and I always thought that each Avenger had their own unique powers, which after watching this, they're all pretty much equal, and in most cases its the uniform they wear that gives them the power. So Thermos wants to delete half the apps because his cell's memory is almost full. Logical. But the Avengers being just an app themselves feel threatened, but luckily they can power up anytime, somehow they can change the pre existing uniform they wear to combat any situation they are in! Awesome. it all takes place within the Sims universe, obviously, because only the Sims would be oblivious to the alien invasion happening all around them and still go to work the next day, and the Avengers know they are just Sims, otherwise they wouldn't be throwing out one liners while the city and its population are being destroyed around them. In the end Thermos gets his way and kills off half of the apps!! Until he gets an upgrade on his cell for Avengers: Endgame, and/or Disney contracts are negotiated. Also loved the recreation of the battle scene from Star Wars: Episode 1: The Phantom Menace. Droid army Vs the Naboo... only now it was Thermos' computer viruses Vs Wakanda... you're sayin that wasn't intentional? Filmbufftim on FB.</t>
   </si>
   <si>
@@ -337,16 +328,19 @@
 Star-Lord then starts punching him and this wakes him up from Mantis's mind powers and this time he demolishes them before going on to destroy half the galaxy. Vision: The development of Vision is also really, really bad. In Age of Ultron he is strong enough to wield Thor's hammer but in Infinity War, he has developed and updated to the point that he never wins a single fight against anyone because it fits the plot. Thor: So in Thor: Ragnarok it was established that Thor is the god of thunder and doesn't need a hammer to be powerful. Then in Infinity War they completely forget this and make him get tossed around like a ragdoll. In fact, he never even uses his lightning abilities until he forges his new weapon. Did the directors forget about what got established in Ragnarok or did they just make Thor weak because once again it fits the plot and Marvel can get away with whatever the heck they want?Scarlet Witch: Wow! Her character was inconsistent. One minute she is getting demolished by some dark order member and the next she is holding off Thanos (who has five infinity stones at this point) for an extended period of time. Once again her powers are only as powerful as the directors need them to be for any given scene. Hulk: So apparently the Hulk is now scared to come out? Ahh, poor little guy. This is a terrible plot twist and really doesn't make much sense. Another thing that did not work about this movie was the sheer amount of characters. I was worried that it might be too many and it was. As a result, there were too many different subplots going on and they couldn't even have one final battle. They had to have two climactic battles going on at one time and the result was a bloated mass of CGI filled action for the last forty-five minutes of the movie. Now, I'll discuss the action in the movie by rating each of the major battles with a brief description:New York battle: 2/10 This battle was absolutely terrible. Noseless the Terrible comes in with the Rock Dude and tears up the city to take Doctor Strange away and nothing about the action is even slightly thrilling. The action in Alicia Vikander's Tomb Raider was better than the action in this battle.Wakanda battle: 8/10 This battle was actually pretty thrilling with great background music and some really cool action. The first half of this battle is a lot better than the second though. It also gets annoying because it's only fed to you in short segments while flashing back to the battle on Titan or Thor forging his hammer-axe-thingy. Overall though, this battle was good and part of the reason that I give Infinity War a 6 and not something much lower.Battle on Titan: 6/10 While, there is some good action in this battle, there are also a ton of inconsistencies revolving around Thanos and how powerful he is. Overall, I wasn't super impressed.I also need to discuss Thanos's plan for a second. He wants to wipe out half of the universe's population because the universe is overcrowded. Then he can finally rest. Did he think of the fact that the universe will repopulate again and all his hard work will be for nothing? I definitely prefer a storyline that involves the threat of total destruction of earth. Finally, I am going to discuss the characters that are killed in the movie and why it makes Avengers 4 really predictable. So at the end of the movie, Thanos snaps his fingers with all the infinity stones and half of the universe is killed. Somehow by random selection, all the original avengers survive. The odds of that happening are 1 in 64 assuming Hawkeye survived the dreaded finger snap of Thanos or 1 in 32 if he died while having his epic gaming session with friends (guess he got bored of the whole avengers thing). The characters that die are almost all new characters like Black Panther, Spiderman, Doctor Strange, etc. Several of these characters already have planned sequels so we know they are going to come back when the original Avengers find a way to time travel and reverse everything. It's just too predictable.Overall, Infinity War was not a very good movie. I do not understand the hype. It was choppy, inconsistent, overcrowded and overall just not the great movie it's cracked up to be. I would not recommend going to the theater for this one. I left feeling exhausted and tired of the MCU.</t>
   </si>
   <si>
-    <t>I'm probably the only fan of Super Hero Squad: Infinity Gauntlet but if you found this Avengers: Infinity War too heavy you should give it a try. Infinity War is filled with more super whiners than super heroes; unless you like your superheroes to whimper, demand to be sacrificed, argue, and to die. Not my idea of good times. Not lining up to see the sequel/conclusion. I'd rather read the comics, or watch it on cartoons. Also, it's stupid that the Fantastic Four and Silver Surfer aren't in this universe.Try to say something positive: ok, the villains were different and refreshing. And it was cool to see so many Avengers represented. Had some cool scenes. Gave it a generous 6/10 but will never watch again.Hero up! and watch Super Hero Squad or for something less childish, Avengers Assemble Season 2, which also tells the story of Thanos.</t>
-  </si>
-  <si>
-    <t>Superheros are super because they do amazing things compared to the rest of us in this world. Here however, everyone does amazing things, always, for too long. It becomes boring. There is no normal world in the background to provide the contrast, it is one (long) fantasy tale. They're all "super" so no one is super anymore. And I feel some character have lost their true nature. Iron Man for example: what defines the character is his suit of armour, high tech sure, but still "clunky" and "solid". This new nano tech suit fits and looks like a soft glove: transition from a knight in armour to a well dressed, tailored character. Of course the movie is visually striking, but again, from the first scene to the last: I got used to the visuals after about 20 minutes, the rest felt to me like repetition.</t>
-  </si>
-  <si>
     <t>The most anticipated movie of 2018 has now been released and my word, I have to say that Infinity War was brilliant on each scale, whether be its story, Visual Effects and the ensemble cast consisting all the Marvel characters. Every Marvel Fan needs to watch the movie as words cannot describe the magnificience of the movie.</t>
   </si>
   <si>
+    <t>Just WOW , The Russo nailed it, hand down from me they did it again. Part by part is interesting to watch , some of scene make me shock some scene make me wanna punch people so bad. Thanos is the best villain I've ever seen. He not just normal villain to kill bunch of people because he love but his motivation so clear why he wanna do that and most people know he is collecting all the infinity stones. One of the best part of it the team up Guardian &amp; Avengers just amazing, full of humor cannot stop laughing watching their scene together. For 1st time my brain cannot process what going to happen in Avengers 4 really hype about it.Really worth watching it , if u non Marvel fans or superheroes fan this movie is worth to watch , really enjoy it . Of course every good movie always have some issue with it but just MINOR issue can close eye and let it go. Going to watch it again soon . Love from Malaysia.</t>
+  </si>
+  <si>
     <t>Just neglect the so called reviews.Its personal views and differs from person to person.Make your own review and keep it to yourself.</t>
+  </si>
+  <si>
+    <t>I'm not a huge fan of the superhero genre, but I'm able to appreciate these movies and have a good time when I watch them, however I can't say the same for Infinity War. Overall it was just a huge mess. A basic cliché formula which consisted entirely of several over-the-top action sequences with snarky one-liners from the "characters" every now and then. The plot barely made any sense, in fact most of the time I barely knew what was going on and the villain's motives were unoriginal and cliché There was apparently supposed to be a lot of emotional weight to this film but it just wasn't there for me. The balance between all the humor and high stakes was just completely off so I didn't know which scenes to take seriously or not.I think the weirdest part of this movie for me was that the Avengers felt oddly out of place for most of it. The Guardians Of The Galaxy are featured far more prominently so the rest of the characters just feel like random background soldiers who show up every few minutes to kick some ass.</t>
+  </si>
+  <si>
+    <t>Without a doubt the most complete cinematic experience I've had since The Dark Knight in 2008, only on a much grander scale. A phenomenal acheivement by everyone involved.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +738,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>-0.06573333333333331</v>
@@ -764,7 +758,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>0.5872857142857143</v>
@@ -784,7 +778,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>-0.01281666666666665</v>
@@ -804,7 +798,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>0.2227625</v>
@@ -824,7 +818,7 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>0.1236653846153846</v>
@@ -844,7 +838,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>0.2901666666666667</v>
@@ -864,7 +858,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>0.27908</v>
@@ -884,7 +878,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>0.01000740740740744</v>
@@ -904,7 +898,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>-0.09684285714285716</v>
@@ -924,7 +918,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>0.1121</v>
@@ -944,7 +938,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>0.1776904761904762</v>
@@ -952,7 +946,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -964,15 +958,15 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>-0.006099999999999993</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -981,18 +975,18 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>-0.0138</v>
+        <v>0.1176741935483871</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1001,13 +995,13 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>0.1176741935483871</v>
+        <v>0.4644900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1024,10 +1018,10 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>0.4644900000000001</v>
+        <v>-0.45455</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1041,18 +1035,18 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>-0.45455</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1064,15 +1058,15 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>0.3095</v>
+        <v>0.05745185185185187</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1084,15 +1078,15 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>0.05745185185185187</v>
+        <v>0.39956</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1101,13 +1095,13 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>0.39956</v>
+        <v>0.08846249999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1124,15 +1118,15 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21">
-        <v>0.08846249999999999</v>
+        <v>-0.2807576271186441</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1141,18 +1135,18 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>-0.2807576271186441</v>
+        <v>0.5134</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1161,18 +1155,18 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23">
-        <v>0.24885</v>
+        <v>0.4213333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1181,18 +1175,18 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24">
-        <v>0.2677666666666667</v>
+        <v>-0.4588</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1201,13 +1195,13 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25">
-        <v>0.5134</v>
+        <v>-0.05495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1221,13 +1215,13 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>-0.4588</v>
+        <v>0.29365</v>
       </c>
     </row>
   </sheetData>
